--- a/biology/Microbiologie/Didier_Chardez/Didier_Chardez.xlsx
+++ b/biology/Microbiologie/Didier_Chardez/Didier_Chardez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didier Chardez, né le 2 octobre 1924 à Paris et mort le 9 septembre 2000 chez lui, à Omal (Province de Liège, Belgique), est un spécialiste des protozoaires thécamoebiens et ciliés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didier Chardez, né le 2 octobre 1924 à Paris et mort le 9 septembre 2000 chez lui, à Omal (Province de Liège, Belgique), est un spécialiste des protozoaires thécamoebiens et ciliés.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents, de nationalité belge, s'étaient installés à Paris après la Première Guerre mondiale (1914-1918) et la famille revint en Belgique en 1930 pour s'établir à Mangombroux (Heusy), près de Verviers où son père devint marchand livreur de lait.
 Didier Chardez fit ses études secondaires à l'École mécanique de Verviers et y obtint le diplôme de dessinateur technique en 1941.
@@ -525,18 +539,18 @@
 Il prit sa retraite en 1981.
 Avec le premier salaire de l'E.I.B. il acheta un microscope qui lui permit d'observer une multitude de micro-organismes qu'il entreprit de dessiner. Ainsi naquit sa passion pour les Thécamoebiens.
 Il entra ensuite en contact avec diverses personnalités du monde scientifique, dont le professeur P. Van Oye de l'université de Gand qui l'invite à publier dans le Biologisch Jaarboek Dodonea.
-Il adhère également à la  Société des Naturalistes Verviétois[2] où il reçoit de nombreux encouragements et où il publie également dans la Revue verviétoise d'Histoire naturelle. Il resta d'ailleurs fidèle tout au long de sa vie à cette Société, même alors qu'il n'habitait plus la région verviétoise et il y publia, de 1961 à 1998, 57 articles.
+Il adhère également à la  Société des Naturalistes Verviétois où il reçoit de nombreux encouragements et où il publie également dans la Revue verviétoise d'Histoire naturelle. Il resta d'ailleurs fidèle tout au long de sa vie à cette Société, même alors qu'il n'habitait plus la région verviétoise et il y publia, de 1961 à 1998, 57 articles.
 Par la suite, il devint membre de la Société française de Microscopie théorique et appliquée, il adhéra au Groupement des Protistologues de Langue française de Clermont-Ferrand et entreprit une correspondance régulière avec le professeur Louis Bonnet de l'université de Toulouse et avec Raymond Thomas, amateur et bon chercheur lui aussi, diplômé d'études supérieures en zoologie.
 En 1959, Jean Leclercq, professeur de zoologie générale à l'Institut Agronomique de l'État et qui connaissait et admirait les publications de Didier Chardez dans la Revue des Naturalistes verviétois, le contacta et lui demanda s'il pourrait lui procurer des préparations de Thécamoebiens pour les travaux pratiques de ses étudiants.
 Répondant par l'affirmative Didier Chardez devint un collaborateur bénévole du laboratoire du professeur Leclercq et il fut invité à participer à la partie zoologique des recherches du Centre national d'Écologie générale dont le promoteur était le professeur P. Duvigneaud de l'université libre de Bruxelles.
-La participation de l'équipe de  Gembloux[3] aux programmes de ce Centre justifia une aide directe à Didier Chardez pour son équipement et la diffusion de ses travaux.
+La participation de l'équipe de  Gembloux aux programmes de ce Centre justifia une aide directe à Didier Chardez pour son équipement et la diffusion de ses travaux.
 Didier Chardez ne fut jamais un chercheur solitaire.
-Il suffit pour s'en convaincre de parcourir la liste de ses publications[4] pour s'apercevoir qu'il était ouvert à toute collaboration avec d'autres protistologues ou avec des chercheurs d'une autre spécialité. À ce propos d'ailleurs, on pourra remarquer la diversité des travaux qui ont été publiés en collaboration avec des chercheurs de Gembloux tels que L. Bougard, F. Delecour, Ch. Gaspar, B. Hennuy, S. Krizlj, J. Leclercq, G. Maes, F. Mommaerts, A. Rassel, J. Tahon.
+Il suffit pour s'en convaincre de parcourir la liste de ses publications pour s'apercevoir qu'il était ouvert à toute collaboration avec d'autres protistologues ou avec des chercheurs d'une autre spécialité. À ce propos d'ailleurs, on pourra remarquer la diversité des travaux qui ont été publiés en collaboration avec des chercheurs de Gembloux tels que L. Bougard, F. Delecour, Ch. Gaspar, B. Hennuy, S. Krizlj, J. Leclercq, G. Maes, F. Mommaerts, A. Rassel, J. Tahon.
 Il faut aussi noter sa collaboration à 78 expertises judiciaires du docteur J. Lambert, médecin légiste à Verviers (Belgique), avec qui il publia un rapport pour Interpol, sur l'utilisation des Thécamoebiens dans l'identification des lieux et des eaux. Il fut d'ailleurs à ce propos, mandé comme expert lors de quelques procès d'Assises.
 Outre ses activités professionnelles et celles de chercheur passionné, Didier Chardez avait également des "passe-temps".
 Il s'intéressait à l'histoire de l'époque napoléonienne et il réalisa, avec une minutie remarquable des centaines de soldats des différentes nations des Coalitions qui combattirent l'Empire ainsi que des dioramas étonnants de réalisme.
 Il était également passé maître dans la réalisation de maquettes de majestueux voiliers parmi lesquels le Bounty, le Terrible et le Royal Catherine, célèbre bateau de la Compagnie des Indes.
-Et enfin, il aimait à s'adonner à la peinture. Il meurt d'une crise cardiaque en 2000[1].
+Et enfin, il aimait à s'adonner à la peinture. Il meurt d'une crise cardiaque en 2000.
 </t>
         </is>
       </c>
@@ -565,7 +579,9 @@
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La personnalité et l'œuvre scientifique de Didier Chardez ont été particulièrement appréciées et nombreux furent ses collègues qui lui ont dédié un taxon nouveau dont voici une liste à titre d'exemple:
 Protozoaires Thécamoebiens :
